--- a/biology/Zoologie/Henry_Ogg_Forbes/Henry_Ogg_Forbes.xlsx
+++ b/biology/Zoologie/Henry_Ogg_Forbes/Henry_Ogg_Forbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Ogg Forbes est un ornithologue, un botaniste et un explorateur écossais, né le 30 janvier 1851 à Aberdeen et mort le 27 octobre 1932.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Aberdeen et à Édimbourg. Il se rend dans les Moluques où il emprunte le chemin suivi par Alfred Russel Wallace (1823-1913) des années plus tôt. Il en tire A Naturalist’s Wanderings in the Eastern Archipelago (1885). Il dirige le muséum de Canterbury à Christchurch en Nouvelle-Zélande de 1890 à 1893. Il devient consultant pour le muséum de Liverpool de 1911 à 1932.
 Plusieurs espèces lui sont attribuées, dont le pluvier de Forbes (Charadrius forbesi) par George Ernest Shelley (1840-1910) en 1883, le râle de Forbes (Rallina forbesi) par Richard Bowdler Sharpe (1847-1909) en 1887, le milan de Forbes (Leptodon forbesi) par Harry Kirke Swann (1871-1926) en 1922, le capucin de Nouvelle-Irlande (Lonchura forbesi) par Philip Lutley Sclater (1829-1913) en 1879.
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird ? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).
 Ce texte utilise des extraits de l'article de langue anglaise de Wikipédia (version du 11 février 2006).</t>
